--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D08BD1-91A6-43FD-93F2-3F0B440F86C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766A41FA-1A1A-45BF-B727-F2AB3572556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,7 +378,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterIcon</t>
+    <t>Art/Sprite/Boss/Boss1</t>
+  </si>
+  <si>
+    <t>Art/Sprite/Boss/Boss2</t>
+  </si>
+  <si>
+    <t>UpgradeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Upgrade/AttackPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Upgrade/DeffencePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Upgrade/HealthUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -905,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -916,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -924,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -956,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -984,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B661A13C-78C0-4024-AC23-0190BC46D0E0}">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -999,10 +1021,10 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1013,10 +1035,10 @@
         <v>910001</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1024,10 +1046,10 @@
         <v>910002</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1035,10 +1057,10 @@
         <v>910003</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1046,10 +1068,10 @@
         <v>910004</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1057,10 +1079,10 @@
         <v>910005</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1068,10 +1090,10 @@
         <v>910006</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1079,10 +1101,10 @@
         <v>920001</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1090,10 +1112,65 @@
         <v>930001</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>930002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>930003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>940001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>940002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>940003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1123,75 +1200,75 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1217,31 +1294,31 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E1" s="4">
         <v>44721</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="8">
         <v>1</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U1" s="9">
         <v>2</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="10">
         <v>3</v>
@@ -1250,7 +1327,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44724.638534953701</v>
+        <v>44724.77381446759</v>
       </c>
       <c r="F2" s="13">
         <v>6</v>
@@ -1287,16 +1364,16 @@
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1392,7 +1469,7 @@
     <row r="4" spans="1:35">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F4:$AI4)),$E4)</f>
@@ -1426,7 +1503,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ref="C5:C20" si="0">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F5:$AI5)),$E5)</f>
@@ -1452,7 +1529,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1483,7 +1560,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1517,7 +1594,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1537,7 +1614,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1557,7 +1634,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1577,7 +1654,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2026,7 +2103,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2036,13 +2113,13 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2066,12 +2143,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7BA66-5030-437F-9DDF-A810912FA7BB}">
   <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
@@ -2080,27 +2158,27 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>210001</v>
+        <v>200001</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2120,13 +2198,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>210002</v>
+        <v>200002</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>930001</v>
+        <v>930002</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -2140,13 +2218,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>210003</v>
+        <v>200003</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>930001</v>
+        <v>930003</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2160,13 +2238,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>210004</v>
+        <v>200004</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>930001</v>
+        <v>930002</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -2180,13 +2258,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>210005</v>
+        <v>200005</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>930001</v>
+        <v>930003</v>
       </c>
       <c r="D7">
         <v>350</v>
@@ -2200,7 +2278,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>210006</v>
+        <v>200006</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2220,10 +2298,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>220001</v>
+        <v>201001</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>930001</v>
@@ -2247,47 +2325,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB62A72-3879-4637-AA7E-A474583661D1}">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>410000</v>
-      </c>
-      <c r="B3">
-        <v>510001</v>
+        <v>401001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>940001</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2301,107 +2380,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>410001</v>
-      </c>
-      <c r="B4">
-        <v>510001</v>
+        <v>401002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>940002</v>
       </c>
       <c r="D4">
-        <f>SUM(D3,E3)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>410002</v>
-      </c>
-      <c r="B5">
-        <v>510001</v>
+        <v>401003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>940003</v>
       </c>
       <c r="D5">
-        <f>SUM(D4,E4)</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>410003</v>
-      </c>
-      <c r="B6">
-        <v>510001</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <f>SUM(D5,E5)</f>
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>410004</v>
-      </c>
-      <c r="B7">
-        <v>510001</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <f>SUM(D6,E6)</f>
-        <v>60</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>410005</v>
-      </c>
-      <c r="B8">
-        <v>510001</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <f>SUM(D7,E7)</f>
-        <v>85</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2430,7 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2428,10 +2442,10 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2536,7 +2550,7 @@
   <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2547,25 +2561,25 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2576,7 +2590,7 @@
         <v>910007</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>399</v>
@@ -2585,7 +2599,7 @@
         <v>4900</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2599,7 +2613,7 @@
         <v>920001</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2608,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -2637,13 +2651,13 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2651,10 +2665,10 @@
         <v>810001</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2662,10 +2676,10 @@
         <v>810002</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2676,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2687,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2695,10 +2709,10 @@
         <v>810005</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2709,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2717,10 +2731,10 @@
         <v>810007</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766A41FA-1A1A-45BF-B727-F2AB3572556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB7F9C7-4DF1-441D-9F97-04A49265A435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="405" yWindow="3555" windowWidth="26355" windowHeight="11355" activeTab="8" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="Upgrade" sheetId="5" r:id="rId6"/>
     <sheet name="Weapon" sheetId="4" r:id="rId7"/>
     <sheet name="Shop" sheetId="3" r:id="rId8"/>
-    <sheet name="String" sheetId="6" r:id="rId9"/>
-    <sheet name="Path" sheetId="7" r:id="rId10"/>
+    <sheet name="StartStatus" sheetId="13" r:id="rId9"/>
+    <sheet name="String" sheetId="6" r:id="rId10"/>
+    <sheet name="Path" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,18 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpgradeValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unknown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +390,34 @@
   </si>
   <si>
     <t>Art/Sprite/Upgrade/HealthUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncreaseStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventorySlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +905,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -905,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -927,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -938,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -946,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -978,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1005,6 +1018,115 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9EE8F-AD06-4E93-BF42-A81103ED372D}">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>810001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>810002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>810003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>810004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>810005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>810006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>810007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B661A13C-78C0-4024-AC23-0190BC46D0E0}">
   <dimension ref="A2:C15"/>
   <sheetViews>
@@ -1024,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1035,10 +1157,10 @@
         <v>910001</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1046,10 +1168,10 @@
         <v>910002</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1057,10 +1179,10 @@
         <v>910003</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1068,10 +1190,10 @@
         <v>910004</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1079,10 +1201,10 @@
         <v>910005</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1090,10 +1212,10 @@
         <v>910006</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1101,10 +1223,10 @@
         <v>920001</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1112,10 +1234,10 @@
         <v>930001</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1123,10 +1245,10 @@
         <v>930002</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1134,10 +1256,10 @@
         <v>930003</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1145,10 +1267,10 @@
         <v>940001</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1156,10 +1278,10 @@
         <v>940002</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1167,10 +1289,10 @@
         <v>940003</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1200,75 +1322,75 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1294,31 +1416,31 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4">
         <v>44721</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="8">
         <v>1</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U1" s="9">
         <v>2</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="10">
         <v>3</v>
@@ -1327,7 +1449,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44724.77381446759</v>
+        <v>44724.816597106481</v>
       </c>
       <c r="F2" s="13">
         <v>6</v>
@@ -1364,16 +1486,16 @@
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1469,7 +1591,7 @@
     <row r="4" spans="1:35">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F4:$AI4)),$E4)</f>
@@ -1503,7 +1625,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ref="C5:C20" si="0">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F5:$AI5)),$E5)</f>
@@ -1529,7 +1651,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1560,7 +1682,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1594,7 +1716,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1614,7 +1736,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1634,7 +1756,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1654,7 +1776,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2103,7 +2225,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2119,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2144,7 +2266,7 @@
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="S1" sqref="S1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2161,19 +2283,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2301,7 +2423,7 @@
         <v>201001</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>930001</v>
@@ -2325,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB62A72-3879-4637-AA7E-A474583661D1}">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2338,27 +2460,24 @@
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>401001</v>
       </c>
@@ -2369,53 +2488,44 @@
         <v>940001</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>401002</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>940002</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10000</v>
       </c>
       <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>401003</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>940003</v>
       </c>
       <c r="D5">
+        <v>2500</v>
+      </c>
+      <c r="E5">
         <v>10</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2550,7 +2660,7 @@
   <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2564,22 +2674,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2590,7 +2700,7 @@
         <v>910007</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>399</v>
@@ -2599,7 +2709,7 @@
         <v>4900</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2613,7 +2723,7 @@
         <v>920001</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2622,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -2636,105 +2746,56 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9EE8F-AD06-4E93-BF42-A81103ED372D}">
-  <dimension ref="A2:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
+  <dimension ref="A2:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>810001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>810002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>810003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>810004</v>
-      </c>
-      <c r="B6" t="s">
+        <v>710001</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>810005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>810006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>810007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB7F9C7-4DF1-441D-9F97-04A49265A435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B3DE9-9429-45AE-817F-1FE653A8B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="3555" windowWidth="26355" windowHeight="11355" activeTab="8" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,15 @@
     <sheet name="Status" sheetId="9" r:id="rId4"/>
     <sheet name="Monster" sheetId="8" r:id="rId5"/>
     <sheet name="Upgrade" sheetId="5" r:id="rId6"/>
-    <sheet name="Weapon" sheetId="4" r:id="rId7"/>
+    <sheet name="Craft" sheetId="4" r:id="rId7"/>
     <sheet name="Shop" sheetId="3" r:id="rId8"/>
     <sheet name="StartStatus" sheetId="13" r:id="rId9"/>
     <sheet name="String" sheetId="6" r:id="rId10"/>
     <sheet name="Path" sheetId="7" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">_Schedule!$B$3:$AI$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>열 너비 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블 파서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +417,58 @@
   </si>
   <si>
     <t>DefPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Craft/EnableBorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Craft/DisableBorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconBorderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel To Csv Auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열 너비 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +550,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -514,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,11 +614,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="8" tint="0.39994506668294322"/>
@@ -959,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -991,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1128,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B661A13C-78C0-4024-AC23-0190BC46D0E0}">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1157,7 +1260,7 @@
         <v>910001</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1168,7 +1271,7 @@
         <v>910002</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1179,7 +1282,7 @@
         <v>910003</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1190,7 +1293,7 @@
         <v>910004</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -1201,7 +1304,7 @@
         <v>910005</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1212,7 +1315,7 @@
         <v>910006</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1223,7 +1326,7 @@
         <v>920001</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1234,10 +1337,10 @@
         <v>930001</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1245,10 +1348,10 @@
         <v>930002</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1256,10 +1359,10 @@
         <v>930003</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1267,10 +1370,10 @@
         <v>940001</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1278,10 +1381,10 @@
         <v>940002</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1289,10 +1392,32 @@
         <v>940003</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>950001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>950002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1401,101 +1526,107 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="16.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.125" style="3" customWidth="1"/>
-    <col min="6" max="35" width="3.625" style="3" customWidth="1"/>
+    <col min="6" max="35" width="6.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E1" s="4">
         <v>44721</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="Q1" s="8">
         <v>1</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U1" s="9">
         <v>2</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y1" s="10">
         <v>3</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44724.816597106481</v>
-      </c>
-      <c r="F2" s="13">
+        <v>44724.872385879629</v>
+      </c>
+      <c r="F2" s="14">
         <v>6</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1598,11 +1729,11 @@
         <v>6/9</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(2,$F4:$AI4)),$E4)</f>
-        <v>6/9</v>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F4:$AI4)),$E4)</f>
+        <v>6/10</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(3,$F4:$AI4)),"")</f>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F4:$AI4)),"")</f>
         <v>6/10</v>
       </c>
       <c r="F4" s="4"/>
@@ -1620,118 +1751,142 @@
         <v>3</v>
       </c>
       <c r="P4" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C20" si="0">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F5:$AI5)),$E5)</f>
-        <v>6/11</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" ref="D5:D20" si="1">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(2,$F5:$AI5)),$E5)</f>
-        <v>6/18</v>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F5:$AI5)),$E5)</f>
+        <v/>
+      </c>
+      <c r="D5" s="13" t="str">
+        <f t="shared" ref="D5:D41" si="0">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F5:$AI5)),$E5)</f>
+        <v/>
       </c>
       <c r="E5" s="4" t="str">
-        <f t="shared" ref="E5:E20" si="2">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(3,$F5:$AI5)),"")</f>
-        <v>6/18</v>
-      </c>
-      <c r="O5" s="3">
+        <f t="shared" ref="E5:E41" si="1">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F5:$AI5)),"")</f>
+        <v/>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="U5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="B6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F6:$AI6)),$E6)</f>
+        <v>6/14</v>
+      </c>
+      <c r="D6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>6/14</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>6/14</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13">
         <v>1</v>
       </c>
-      <c r="P5" s="3">
-        <v>1</v>
-      </c>
-      <c r="W5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="B6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>6/10</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>6/10</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>6/10</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="O6" s="3">
-        <v>3</v>
-      </c>
-      <c r="P6" s="3">
-        <v>2</v>
-      </c>
+      <c r="T6" s="13">
+        <v>4</v>
+      </c>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
     </row>
     <row r="7" spans="1:35">
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>6/11</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>6/12</v>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F7:$AI7)),$E7)</f>
+        <v/>
+      </c>
+      <c r="D7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>6/12</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="S7" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>6/14</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>6/14</v>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F8:$AI8)),$E8)</f>
+        <v>6/12</v>
+      </c>
+      <c r="D8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>6/12</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>6/14</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6/12</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="Q8" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1739,481 +1894,688 @@
         <v>61</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>6/15</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>6/15</v>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F9:$AI9)),$E9)</f>
+        <v>6/12</v>
+      </c>
+      <c r="D9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>6/12</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>6/15</v>
+        <f t="shared" si="1"/>
+        <v>6/12</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
       </c>
       <c r="T9" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>6/13</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>6/13</v>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F10:$AI10)),$E10)</f>
+        <v>6/14</v>
+      </c>
+      <c r="D10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>6/14</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>6/13</v>
-      </c>
-      <c r="R10" s="3">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6/14</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>6/14</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>6/14</v>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F11:$AI11)),$E11)</f>
+        <v>6/10</v>
+      </c>
+      <c r="D11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>6/12</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>6/14</v>
-      </c>
-      <c r="S11" s="3">
+        <f t="shared" si="1"/>
+        <v>6/12</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
         <v>2</v>
       </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:35">
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F12:$AI12)),$E12)</f>
+        <v>6/10</v>
+      </c>
+      <c r="D12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>6/11</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>6/11</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13">
+        <v>1</v>
+      </c>
+      <c r="P12" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:35">
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F13:$AI13)),$E13)</f>
+        <v>6/10</v>
+      </c>
+      <c r="D13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>6/10</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>6/10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="O13" s="3">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:35">
+      <c r="B14" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="C14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F14:$AI14)),$E14)</f>
+        <v/>
+      </c>
+      <c r="D14" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:35">
+      <c r="B15" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="C15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F15:$AI15)),$E15)</f>
+        <v/>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E15" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:35">
+      <c r="B16" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="C16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F16:$AI16)),$E16)</f>
+        <v/>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="C17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F17:$AI17)),$E17)</f>
+        <v/>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F18:$AI18)),$E18)</f>
+        <v/>
+      </c>
+      <c r="D18" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F19:$AI19)),$E19)</f>
+        <v/>
+      </c>
+      <c r="D19" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F20:$AI20)),$E20)</f>
+        <v/>
+      </c>
+      <c r="D20" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C21" s="3" t="str">
-        <f t="shared" ref="C21:C40" si="3">_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F21:$AI21)),$E21)</f>
-        <v/>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" ref="D21:D40" si="4">_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(2,$F21:$AI21)),$E21)</f>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F21:$AI21)),$E21)</f>
+        <v/>
+      </c>
+      <c r="D21" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" ref="E21:E40" si="5">_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(3,$F21:$AI21)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C22" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F22:$AI22)),$E22)</f>
+        <v/>
+      </c>
+      <c r="D22" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C23" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F23:$AI23)),$E23)</f>
+        <v/>
+      </c>
+      <c r="D23" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C24" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F24:$AI24)),$E24)</f>
+        <v/>
+      </c>
+      <c r="D24" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C25" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F25:$AI25)),$E25)</f>
+        <v/>
+      </c>
+      <c r="D25" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D26" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F26:$AI26)),$E26)</f>
+        <v/>
+      </c>
+      <c r="D26" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C27" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D27" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F27:$AI27)),$E27)</f>
+        <v/>
+      </c>
+      <c r="D27" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C28" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D28" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F28:$AI28)),$E28)</f>
+        <v/>
+      </c>
+      <c r="D28" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C29" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D29" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F29:$AI29)),$E29)</f>
+        <v/>
+      </c>
+      <c r="D29" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C30" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D30" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F30:$AI30)),$E30)</f>
+        <v/>
+      </c>
+      <c r="D30" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E30" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C31" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D31" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F31:$AI31)),$E31)</f>
+        <v/>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E31" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C32" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F32:$AI32)),$E32)</f>
+        <v/>
+      </c>
+      <c r="D32" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C33" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D33" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F33:$AI33)),$E33)</f>
+        <v/>
+      </c>
+      <c r="D33" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E33" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C34" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D34" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F34:$AI34)),$E34)</f>
+        <v/>
+      </c>
+      <c r="D34" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C35" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D35" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F35:$AI35)),$E35)</f>
+        <v/>
+      </c>
+      <c r="D35" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C36" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D36" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F36:$AI36)),$E36)</f>
+        <v/>
+      </c>
+      <c r="D36" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C37" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D37" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F37:$AI37)),$E37)</f>
+        <v/>
+      </c>
+      <c r="D37" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C38" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D38" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F38:$AI38)),$E38)</f>
+        <v/>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C39" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D39" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F39:$AI39)),$E39)</f>
+        <v/>
+      </c>
+      <c r="D39" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C40" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D40" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F40:$AI40)),$E40)</f>
+        <v/>
+      </c>
+      <c r="D40" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F41:$AI41)),$E41)</f>
+        <v/>
+      </c>
+      <c r="D41" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:AI41" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:AI41">
+      <sortCondition descending="1" ref="C3:C41"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="F2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N4:AI40">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="N4:AI41">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:AI13">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2283,10 +2645,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -2423,7 +2785,7 @@
         <v>201001</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>930001</v>
@@ -2465,16 +2827,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
         <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2499,7 +2861,7 @@
         <v>401002</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>940002</v>
@@ -2537,114 +2899,153 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FF8978-7A4D-4CCE-87DE-7303823D3EEB}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
+        <v>510000</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>950001</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>510001</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>910001</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>950002</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>510002</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>910002</v>
       </c>
-      <c r="C4">
+      <c r="C5">
+        <v>950002</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>510003</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>910003</v>
       </c>
-      <c r="C5">
+      <c r="C6">
+        <v>950002</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>510004</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>910004</v>
       </c>
-      <c r="C6">
+      <c r="C7">
+        <v>950002</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>510005</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>910005</v>
       </c>
-      <c r="C7">
+      <c r="C8">
+        <v>950002</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>510006</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>910006</v>
       </c>
-      <c r="C8">
+      <c r="C9">
+        <v>950002</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>160</v>
       </c>
     </row>
@@ -2674,22 +3075,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2709,7 +3110,7 @@
         <v>4900</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2723,7 +3124,7 @@
         <v>920001</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2749,7 +3150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
   <dimension ref="A2:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2763,16 +3164,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B3DE9-9429-45AE-817F-1FE653A8B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2E16E7-AB8C-4501-853E-05FAB3377972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 스탯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,14 +441,6 @@
   </si>
   <si>
     <t>열 너비 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,41 +608,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="5" tint="0.39994506668294322"/>
@@ -1062,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1094,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1260,7 +1221,7 @@
         <v>910001</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1271,7 +1232,7 @@
         <v>910002</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1282,7 +1243,7 @@
         <v>910003</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1293,7 +1254,7 @@
         <v>910004</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -1304,7 +1265,7 @@
         <v>910005</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1315,7 +1276,7 @@
         <v>910006</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1326,7 +1287,7 @@
         <v>920001</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1337,10 +1298,10 @@
         <v>930001</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1348,10 +1309,10 @@
         <v>930002</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1359,10 +1320,10 @@
         <v>930003</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1370,10 +1331,10 @@
         <v>940001</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1381,10 +1342,10 @@
         <v>940002</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1392,10 +1353,10 @@
         <v>940003</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1403,10 +1364,10 @@
         <v>950001</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1414,10 +1375,10 @@
         <v>950002</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1490,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1541,19 +1502,14 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="4">
-        <v>44721</v>
-      </c>
+      <c r="E1" s="4"/>
       <c r="O1" s="3" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="8">
         <v>1</v>
@@ -1565,13 +1521,13 @@
         <v>2</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="10">
         <v>3</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AC1" s="15">
         <v>4</v>
@@ -1580,40 +1536,40 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44724.872385879629</v>
-      </c>
-      <c r="F2" s="14">
+        <v>44725.837457407404</v>
+      </c>
+      <c r="F2" s="16">
         <v>6</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -1725,7 +1681,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F4:$AI4)),$E4)</f>
+        <f t="shared" ref="C4:C21" si="0">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F4:$AI4)),$E4)</f>
         <v>6/9</v>
       </c>
       <c r="D4" s="3" t="str">
@@ -1733,8 +1689,8 @@
         <v>6/10</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F4:$AI4)),"")</f>
-        <v>6/10</v>
+        <f t="shared" ref="E4:E11" si="1">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F4:$AI4)),"")</f>
+        <v>6/11</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1759,16 +1715,16 @@
         <v>60</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F5:$AI5)),$E5)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6/15</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f t="shared" ref="D5:D41" si="0">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F5:$AI5)),$E5)</f>
-        <v/>
+        <f t="shared" ref="D5:D41" si="2">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F5:$AI5)),$E5)</f>
+        <v>6/16</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f t="shared" ref="E5:E41" si="1">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F5:$AI5)),"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>6/16</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1778,25 +1734,28 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
       <c r="U5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="B6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="13" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F6:$AI6)),$E6)</f>
-        <v>6/14</v>
-      </c>
-      <c r="D6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>6/14</v>
       </c>
+      <c r="D6" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>6/15</v>
+      </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6/14</v>
+        <v>6/15</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -1815,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
@@ -1835,19 +1794,19 @@
     </row>
     <row r="7" spans="1:35">
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F7:$AI7)),$E7)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6/13</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>6/14</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>6/14</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -1857,20 +1816,23 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
       <c r="S7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F8:$AI8)),$E8)</f>
+        <f t="shared" si="0"/>
         <v>6/12</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6/12</v>
       </c>
       <c r="E8" s="4" t="str">
@@ -1886,7 +1848,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="Q8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1894,45 +1856,48 @@
         <v>61</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F9:$AI9)),$E9)</f>
-        <v>6/12</v>
+        <f t="shared" si="0"/>
+        <v>6/13</v>
       </c>
       <c r="D9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>6/12</v>
+        <f t="shared" si="2"/>
+        <v>6/15</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6/12</v>
-      </c>
-      <c r="Q9" s="3">
+        <v>6/15</v>
+      </c>
+      <c r="R9" s="3">
         <v>1</v>
       </c>
+      <c r="S9" s="3">
+        <v>2</v>
+      </c>
       <c r="T9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F10:$AI10)),$E10)</f>
-        <v>6/14</v>
-      </c>
-      <c r="D10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>6/14</v>
       </c>
+      <c r="D10" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>6/17</v>
+      </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6/14</v>
+        <v>6/17</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
       </c>
       <c r="V10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1940,16 +1905,16 @@
         <v>55</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F11:$AI11)),$E11)</f>
+        <f t="shared" si="0"/>
         <v>6/10</v>
       </c>
       <c r="D11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>6/12</v>
+        <f t="shared" si="2"/>
+        <v>6/19</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6/12</v>
+        <v>6/19</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1966,10 +1931,10 @@
         <v>2</v>
       </c>
       <c r="Q11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1977,16 +1942,16 @@
         <v>56</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F12:$AI12)),$E12)</f>
+        <f t="shared" si="0"/>
         <v>6/10</v>
       </c>
       <c r="D12" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6/11</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>6/11</v>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F12:$AI12)),"")</f>
+        <v>6/12</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2012,16 +1977,16 @@
         <v>63</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F13:$AI13)),$E13)</f>
-        <v>6/10</v>
-      </c>
-      <c r="D13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>6/10</v>
       </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>6/10</v>
+      </c>
       <c r="E13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>6/10</v>
+        <f t="shared" ref="E13:E41" si="3">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F13:$AI13)),"")</f>
+        <v>6/11</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2032,7 +1997,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="O13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="3">
         <v>4</v>
@@ -2040,324 +2005,324 @@
     </row>
     <row r="14" spans="1:35">
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F14:$AI14)),$E14)</f>
-        <v/>
-      </c>
-      <c r="D14" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="B15" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F15:$AI15)),$E15)</f>
-        <v/>
-      </c>
-      <c r="D15" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="B16" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F16:$AI16)),$E16)</f>
-        <v/>
-      </c>
-      <c r="D16" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E16" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F17:$AI17)),$E17)</f>
-        <v/>
-      </c>
-      <c r="D17" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F18:$AI18)),$E18)</f>
-        <v/>
-      </c>
-      <c r="D18" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F19:$AI19)),$E19)</f>
-        <v/>
-      </c>
-      <c r="D19" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="D19" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F20:$AI20)),$E20)</f>
-        <v/>
-      </c>
-      <c r="D20" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="D20" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F21:$AI21)),$E21)</f>
-        <v/>
-      </c>
-      <c r="D21" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="D21" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F22:$AI22)),$E22)</f>
-        <v/>
-      </c>
-      <c r="D22" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C22:C41" si="4">_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F22:$AI22)),$E22)</f>
+        <v/>
+      </c>
+      <c r="D22" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F23:$AI23)),$E23)</f>
-        <v/>
-      </c>
-      <c r="D23" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D23" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F24:$AI24)),$E24)</f>
-        <v/>
-      </c>
-      <c r="D24" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D24" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F25:$AI25)),$E25)</f>
-        <v/>
-      </c>
-      <c r="D25" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D25" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F26:$AI26)),$E26)</f>
-        <v/>
-      </c>
-      <c r="D26" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D26" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F27:$AI27)),$E27)</f>
-        <v/>
-      </c>
-      <c r="D27" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D27" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F28:$AI28)),$E28)</f>
-        <v/>
-      </c>
-      <c r="D28" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D28" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F29:$AI29)),$E29)</f>
-        <v/>
-      </c>
-      <c r="D29" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D29" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F30:$AI30)),$E30)</f>
-        <v/>
-      </c>
-      <c r="D30" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D30" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F31:$AI31)),$E31)</f>
-        <v/>
-      </c>
-      <c r="D31" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D31" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E31" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F32:$AI32)),$E32)</f>
-        <v/>
-      </c>
-      <c r="D32" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D32" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F32" s="13"/>
@@ -2374,18 +2339,18 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F33:$AI33)),$E33)</f>
-        <v/>
-      </c>
-      <c r="D33" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D33" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F33" s="13"/>
@@ -2399,35 +2364,35 @@
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F34:$AI34)),$E34)</f>
-        <v/>
-      </c>
-      <c r="D34" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D34" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F35:$AI35)),$E35)</f>
-        <v/>
-      </c>
-      <c r="D35" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D35" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F35" s="13"/>
@@ -2441,103 +2406,103 @@
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F36:$AI36)),$E36)</f>
-        <v/>
-      </c>
-      <c r="D36" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D36" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F37:$AI37)),$E37)</f>
-        <v/>
-      </c>
-      <c r="D37" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D37" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F38:$AI38)),$E38)</f>
-        <v/>
-      </c>
-      <c r="D38" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D38" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F39:$AI39)),$E39)</f>
-        <v/>
-      </c>
-      <c r="D39" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D39" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F40:$AI40)),$E40)</f>
-        <v/>
-      </c>
-      <c r="D40" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D40" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F41:$AI41)),$E41)</f>
-        <v/>
-      </c>
-      <c r="D41" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D41" s="14" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F41" s="13"/>
@@ -2563,18 +2528,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N4:AI41">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:AI13">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2645,10 +2610,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -2785,7 +2750,7 @@
         <v>201001</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>930001</v>
@@ -2827,16 +2792,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2861,7 +2826,7 @@
         <v>401002</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>940002</v>
@@ -2918,10 +2883,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -3075,22 +3040,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3110,7 +3075,7 @@
         <v>4900</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3124,7 +3089,7 @@
         <v>920001</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3164,16 +3129,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2E16E7-AB8C-4501-853E-05FAB3377972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C889B3-5138-4D4A-A491-B0C101DFBA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="Status" sheetId="9" r:id="rId4"/>
     <sheet name="Monster" sheetId="8" r:id="rId5"/>
     <sheet name="Upgrade" sheetId="5" r:id="rId6"/>
-    <sheet name="Craft" sheetId="4" r:id="rId7"/>
+    <sheet name="Item" sheetId="4" r:id="rId7"/>
     <sheet name="Shop" sheetId="3" r:id="rId8"/>
     <sheet name="StartStatus" sheetId="13" r:id="rId9"/>
     <sheet name="String" sheetId="6" r:id="rId10"/>
     <sheet name="Path" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">_Schedule!$B$3:$AI$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">_Schedule!$B$3:$AI$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="103">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테이블 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,10 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AtkPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 매니저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Excel To Csv Auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,6 +445,18 @@
   </si>
   <si>
     <t>전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 연동(상점 제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,11 +611,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
       <font>
         <color theme="5" tint="0.39994506668294322"/>
@@ -653,6 +656,46 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1023,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1055,7 +1098,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1221,7 +1264,7 @@
         <v>910001</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1232,7 +1275,7 @@
         <v>910002</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1243,7 +1286,7 @@
         <v>910003</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1254,7 +1297,7 @@
         <v>910004</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -1265,7 +1308,7 @@
         <v>910005</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1276,7 +1319,7 @@
         <v>910006</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1287,7 +1330,7 @@
         <v>920001</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1298,10 +1341,10 @@
         <v>930001</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1309,10 +1352,10 @@
         <v>930002</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1320,10 +1363,10 @@
         <v>930003</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1331,10 +1374,10 @@
         <v>940001</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1342,10 +1385,10 @@
         <v>940002</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1353,10 +1396,10 @@
         <v>940003</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1364,10 +1407,10 @@
         <v>950001</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1375,10 +1418,10 @@
         <v>950002</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1487,29 +1530,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.125" style="3" customWidth="1"/>
     <col min="6" max="35" width="6.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="4"/>
       <c r="O1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="8">
         <v>1</v>
@@ -1536,47 +1579,47 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44725.837457407404</v>
-      </c>
-      <c r="F2" s="16">
+        <v>44726.780343981482</v>
+      </c>
+      <c r="F2" s="17">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>58</v>
@@ -1681,7 +1724,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f t="shared" ref="C4:C21" si="0">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F4:$AI4)),$E4)</f>
+        <f t="shared" ref="C4:C20" si="0">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F4:$AI4)),$E4)</f>
         <v>6/9</v>
       </c>
       <c r="D4" s="3" t="str">
@@ -1689,7 +1732,7 @@
         <v>6/10</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f t="shared" ref="E4:E11" si="1">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F4:$AI4)),"")</f>
+        <f t="shared" ref="E4:E10" si="1">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F4:$AI4)),"")</f>
         <v>6/11</v>
       </c>
       <c r="F4" s="4"/>
@@ -1719,7 +1762,7 @@
         <v>6/15</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f t="shared" ref="D5:D41" si="2">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F5:$AI5)),$E5)</f>
+        <f t="shared" ref="D5:D40" si="2">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F5:$AI5)),$E5)</f>
         <v>6/16</v>
       </c>
       <c r="E5" s="4" t="str">
@@ -1743,7 +1786,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="B6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1794,7 +1837,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1802,7 +1845,7 @@
       </c>
       <c r="D7" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>6/14</v>
+        <v>6/13</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1820,12 +1863,12 @@
         <v>1</v>
       </c>
       <c r="S7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1853,7 +1896,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1861,48 +1904,59 @@
       </c>
       <c r="D9" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>6/15</v>
+        <v>6/13</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6/15</v>
+        <v>6/13</v>
       </c>
       <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2</v>
-      </c>
-      <c r="T9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6/14</v>
+        <v>6/10</v>
       </c>
       <c r="D10" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>6/17</v>
+        <v>6/19</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6/17</v>
+        <v>6/19</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2</v>
       </c>
       <c r="S10" s="3">
-        <v>1</v>
-      </c>
-      <c r="V10" s="3">
+        <v>2</v>
+      </c>
+      <c r="X10" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1910,48 +1964,46 @@
       </c>
       <c r="D11" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>6/19</v>
+        <v>6/11</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>6/19</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="O11" s="3">
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F11:$AI11)),"")</f>
+        <v>6/12</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13">
         <v>1</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="13">
         <v>2</v>
       </c>
       <c r="Q11" s="3">
-        <v>2</v>
-      </c>
-      <c r="X11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>6/10</v>
       </c>
-      <c r="D12" s="13" t="str">
+      <c r="D12" s="14" t="str">
         <f t="shared" si="2"/>
+        <v>6/10</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" ref="E12:E40" si="3">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F12:$AI12)),"")</f>
         <v>6/11</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F12:$AI12)),"")</f>
-        <v>6/12</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1961,32 +2013,28 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13">
+      <c r="O12" s="3">
         <v>1</v>
       </c>
-      <c r="P12" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="P12" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6/10</v>
+        <v/>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>6/10</v>
+        <v/>
       </c>
       <c r="E13" s="4" t="str">
-        <f t="shared" ref="E13:E41" si="3">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F13:$AI13)),"")</f>
-        <v>6/11</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1996,16 +2044,32 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3">
-        <v>4</v>
-      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="B14" s="3" t="s">
-        <v>99</v>
+      <c r="B14" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2022,7 +2086,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="B15" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2036,10 +2100,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
     </row>
     <row r="16" spans="1:35">
       <c r="B16" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2053,10 +2147,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+    </row>
+    <row r="17" spans="2:35">
       <c r="B17" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2070,10 +2194,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+    </row>
+    <row r="18" spans="2:35">
       <c r="B18" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2087,10 +2241,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+    </row>
+    <row r="19" spans="2:35">
       <c r="B19" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2104,10 +2288,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:16">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+    </row>
+    <row r="20" spans="2:35">
       <c r="B20" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2121,13 +2335,43 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:16">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+    </row>
+    <row r="21" spans="2:35">
       <c r="B21" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C21:C40" si="4">_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F21:$AI21)),$E21)</f>
         <v/>
       </c>
       <c r="D21" s="14" t="str">
@@ -2138,13 +2382,43 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="2:16">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+    </row>
+    <row r="22" spans="2:35">
       <c r="B22" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f t="shared" ref="C22:C41" si="4">_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F22:$AI22)),$E22)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D22" s="14" t="str">
@@ -2155,10 +2429,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="2:16">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+    </row>
+    <row r="23" spans="2:35">
       <c r="B23" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2172,10 +2476,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:16">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+    </row>
+    <row r="24" spans="2:35">
       <c r="B24" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2189,10 +2523,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+    </row>
+    <row r="25" spans="2:35">
       <c r="B25" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2206,10 +2570,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+    </row>
+    <row r="26" spans="2:35">
       <c r="B26" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2223,10 +2617,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="2:16">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+    </row>
+    <row r="27" spans="2:35">
       <c r="B27" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2240,10 +2664,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="2:16">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+    </row>
+    <row r="28" spans="2:35">
       <c r="B28" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2257,10 +2711,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="2:16">
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+    </row>
+    <row r="29" spans="2:35">
       <c r="B29" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2274,10 +2758,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="2:16">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+    </row>
+    <row r="30" spans="2:35">
       <c r="B30" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2291,10 +2805,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="2:16">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+    </row>
+    <row r="31" spans="2:35">
       <c r="B31" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2308,10 +2852,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:16">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+    </row>
+    <row r="32" spans="2:35">
       <c r="B32" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2325,21 +2899,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-    </row>
-    <row r="33" spans="2:16">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+    </row>
+    <row r="33" spans="2:35">
       <c r="B33" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2353,18 +2946,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="2:16">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+    </row>
+    <row r="34" spans="2:35">
       <c r="B34" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2378,10 +2993,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="2:16">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+    </row>
+    <row r="35" spans="2:35">
       <c r="B35" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2395,18 +3040,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="2:16">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+    </row>
+    <row r="36" spans="2:35">
       <c r="B36" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2420,10 +3087,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="2:16">
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+    </row>
+    <row r="37" spans="2:35">
       <c r="B37" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2437,10 +3134,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="2:16">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+    </row>
+    <row r="38" spans="2:35">
       <c r="B38" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2454,10 +3181,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="2:16">
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+    </row>
+    <row r="39" spans="2:35">
       <c r="B39" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2471,10 +3228,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="2:16">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+    </row>
+    <row r="40" spans="2:35">
       <c r="B40" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2488,59 +3275,59 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D41" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E41" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:AI41" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:AI41">
-      <sortCondition descending="1" ref="C3:C41"/>
+  <autoFilter ref="B3:AI40" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:AI40">
+      <sortCondition descending="1" ref="C3:C40"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="F2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N4:AI41">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="F4:AI40">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:AI13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2610,10 +3397,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -2750,7 +3537,7 @@
         <v>201001</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>930001</v>
@@ -2792,16 +3579,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2826,7 +3613,7 @@
         <v>401002</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>940002</v>
@@ -2864,153 +3651,224 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FF8978-7A4D-4CCE-87DE-7303823D3EEB}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>510000</v>
-      </c>
-      <c r="B3">
+        <v>500000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>950001</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
+        <v>500001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>950002</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>510001</v>
       </c>
-      <c r="B4">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>910001</v>
       </c>
-      <c r="C4">
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>950002</v>
       </c>
-      <c r="D4">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="G5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>510002</v>
       </c>
-      <c r="B5">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>910002</v>
       </c>
-      <c r="C5">
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>950002</v>
       </c>
-      <c r="D5">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="G6">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>510003</v>
       </c>
-      <c r="B6">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>910003</v>
       </c>
-      <c r="C6">
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>950002</v>
       </c>
-      <c r="D6">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="G7">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>510004</v>
       </c>
-      <c r="B7">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>910004</v>
       </c>
-      <c r="C7">
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>950002</v>
       </c>
-      <c r="D7">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="G8">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>510005</v>
       </c>
-      <c r="B8">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>910005</v>
       </c>
-      <c r="C8">
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>950002</v>
       </c>
-      <c r="D8">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="G9">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>510006</v>
       </c>
-      <c r="B9">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>910006</v>
       </c>
-      <c r="C9">
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>950002</v>
       </c>
-      <c r="D9">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="G10">
         <v>160</v>
       </c>
     </row>
@@ -3040,22 +3898,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3075,7 +3933,7 @@
         <v>4900</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3089,7 +3947,7 @@
         <v>920001</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3116,7 +3974,7 @@
   <dimension ref="A2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3129,16 +3987,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C889B3-5138-4D4A-A491-B0C101DFBA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18652600-62F2-4484-8072-BEAE1D5F4282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="15465" yWindow="900" windowWidth="21060" windowHeight="12975" activeTab="8" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,10 @@
   </si>
   <si>
     <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,47 +622,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="8" tint="0.39994506668294322"/>
@@ -1532,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1579,7 +1543,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44726.780343981482</v>
+        <v>44727.491258912036</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -3317,16 +3281,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4:AI40">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3971,18 +3935,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3990,19 +3955,22 @@
         <v>87</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>710001</v>
       </c>
@@ -4010,15 +3978,18 @@
         <v>4</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>1000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>100</v>
       </c>
     </row>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18652600-62F2-4484-8072-BEAE1D5F4282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2118E4-0F4D-4CFE-B281-17108F8D7279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15465" yWindow="900" windowWidth="21060" windowHeight="12975" activeTab="8" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="7" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
     <sheet name="_Feature List" sheetId="11" r:id="rId2"/>
     <sheet name="_Schedule" sheetId="12" r:id="rId3"/>
-    <sheet name="Status" sheetId="9" r:id="rId4"/>
-    <sheet name="Monster" sheetId="8" r:id="rId5"/>
-    <sheet name="Upgrade" sheetId="5" r:id="rId6"/>
-    <sheet name="Item" sheetId="4" r:id="rId7"/>
-    <sheet name="Shop" sheetId="3" r:id="rId8"/>
-    <sheet name="StartStatus" sheetId="13" r:id="rId9"/>
-    <sheet name="String" sheetId="6" r:id="rId10"/>
-    <sheet name="Path" sheetId="7" r:id="rId11"/>
+    <sheet name="Monster" sheetId="8" r:id="rId4"/>
+    <sheet name="Upgrade" sheetId="5" r:id="rId5"/>
+    <sheet name="Item" sheetId="4" r:id="rId6"/>
+    <sheet name="Shop" sheetId="3" r:id="rId7"/>
+    <sheet name="StartStatus" sheetId="13" r:id="rId8"/>
+    <sheet name="String" sheetId="6" r:id="rId9"/>
+    <sheet name="Path" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">_Schedule!$B$3:$AI$40</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableParser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +456,14 @@
   </si>
   <si>
     <t>AddCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncreasePrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CraftLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1062,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1089,115 +1092,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9EE8F-AD06-4E93-BF42-A81103ED372D}">
-  <dimension ref="A2:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>810001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>810002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>810003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>810004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>810005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>810006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>810007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B661A13C-78C0-4024-AC23-0190BC46D0E0}">
   <dimension ref="A2:C17"/>
   <sheetViews>
@@ -1228,7 +1122,7 @@
         <v>910001</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1239,7 +1133,7 @@
         <v>910002</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1250,7 +1144,7 @@
         <v>910003</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1261,7 +1155,7 @@
         <v>910004</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -1272,7 +1166,7 @@
         <v>910005</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1283,7 +1177,7 @@
         <v>910006</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1294,7 +1188,7 @@
         <v>920001</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1305,10 +1199,10 @@
         <v>930001</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1316,10 +1210,10 @@
         <v>930002</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1327,10 +1221,10 @@
         <v>930003</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1338,10 +1232,10 @@
         <v>940001</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1349,10 +1243,10 @@
         <v>940002</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1360,10 +1254,10 @@
         <v>940003</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1371,10 +1265,10 @@
         <v>950001</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1382,10 +1276,10 @@
         <v>950002</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1415,10 +1309,10 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -1430,60 +1324,60 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1391,7 @@
   <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1509,32 +1403,32 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4"/>
       <c r="O1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="8">
         <v>1</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U1" s="9">
         <v>2</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="10">
         <v>3</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="15">
         <v>4</v>
@@ -1543,7 +1437,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44727.491258912036</v>
+        <v>44727.803985995371</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -1580,16 +1474,16 @@
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1685,7 +1579,7 @@
     <row r="4" spans="1:35">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ref="C4:C20" si="0">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH(1,$F4:$AI4)),$E4)</f>
@@ -1719,19 +1613,19 @@
     </row>
     <row r="5" spans="1:35">
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6/15</v>
+        <v>6/16</v>
       </c>
       <c r="D5" s="13" t="str">
         <f t="shared" ref="D5:D40" si="2">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F5:$AI5)),$E5)</f>
-        <v>6/16</v>
+        <v>6/17</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6/16</v>
+        <v>6/17</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1741,16 +1635,16 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>1</v>
       </c>
-      <c r="U5" s="3">
+      <c r="V5" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="B6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1758,7 +1652,7 @@
       </c>
       <c r="D6" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>6/15</v>
+        <v>6/14</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1781,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
@@ -1801,7 +1695,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1832,7 +1726,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1860,7 +1754,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1877,10 +1771,13 @@
       <c r="R9" s="3">
         <v>4</v>
       </c>
+      <c r="S9" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:35">
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1920,7 +1817,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1955,7 +1852,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1986,7 +1883,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2033,24 +1930,27 @@
     </row>
     <row r="14" spans="1:35">
       <c r="B14" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6/15</v>
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6/15</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6/15</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="B15" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2097,7 +1997,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="B16" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2144,7 +2044,7 @@
     </row>
     <row r="17" spans="2:35">
       <c r="B17" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2191,7 +2091,7 @@
     </row>
     <row r="18" spans="2:35">
       <c r="B18" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2238,7 +2138,7 @@
     </row>
     <row r="19" spans="2:35">
       <c r="B19" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2285,7 +2185,7 @@
     </row>
     <row r="20" spans="2:35">
       <c r="B20" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2332,7 +2232,7 @@
     </row>
     <row r="21" spans="2:35">
       <c r="B21" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" ref="C21:C40" si="4">_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F21:$AI21)),$E21)</f>
@@ -2379,7 +2279,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2426,7 +2326,7 @@
     </row>
     <row r="23" spans="2:35">
       <c r="B23" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2473,7 +2373,7 @@
     </row>
     <row r="24" spans="2:35">
       <c r="B24" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2520,7 +2420,7 @@
     </row>
     <row r="25" spans="2:35">
       <c r="B25" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2567,7 +2467,7 @@
     </row>
     <row r="26" spans="2:35">
       <c r="B26" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2614,7 +2514,7 @@
     </row>
     <row r="27" spans="2:35">
       <c r="B27" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2661,7 +2561,7 @@
     </row>
     <row r="28" spans="2:35">
       <c r="B28" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2708,7 +2608,7 @@
     </row>
     <row r="29" spans="2:35">
       <c r="B29" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2755,7 +2655,7 @@
     </row>
     <row r="30" spans="2:35">
       <c r="B30" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2802,7 +2702,7 @@
     </row>
     <row r="31" spans="2:35">
       <c r="B31" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2849,7 +2749,7 @@
     </row>
     <row r="32" spans="2:35">
       <c r="B32" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2896,7 +2796,7 @@
     </row>
     <row r="33" spans="2:35">
       <c r="B33" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2943,7 +2843,7 @@
     </row>
     <row r="34" spans="2:35">
       <c r="B34" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2990,7 +2890,7 @@
     </row>
     <row r="35" spans="2:35">
       <c r="B35" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="4"/>
@@ -3037,7 +2937,7 @@
     </row>
     <row r="36" spans="2:35">
       <c r="B36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="4"/>
@@ -3084,7 +2984,7 @@
     </row>
     <row r="37" spans="2:35">
       <c r="B37" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="4"/>
@@ -3131,7 +3031,7 @@
     </row>
     <row r="38" spans="2:35">
       <c r="B38" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="4"/>
@@ -3178,7 +3078,7 @@
     </row>
     <row r="39" spans="2:35">
       <c r="B39" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="4"/>
@@ -3225,7 +3125,7 @@
     </row>
     <row r="40" spans="2:35">
       <c r="B40" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="4"/>
@@ -3299,47 +3199,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD7CE6C-FA94-47D0-B361-816200481214}">
-  <dimension ref="A2:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>110001</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7BA66-5030-437F-9DDF-A810912FA7BB}">
   <dimension ref="A2:F9"/>
   <sheetViews>
@@ -3361,10 +3220,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -3501,7 +3360,7 @@
         <v>201001</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>930001</v>
@@ -3514,6 +3373,108 @@
       </c>
       <c r="F9">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB62A72-3879-4637-AA7E-A474583661D1}">
+  <dimension ref="A2:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>401001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>940001</v>
+      </c>
+      <c r="D3">
+        <v>5000</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>401002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>940002</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>401003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>940003</v>
+      </c>
+      <c r="D5">
+        <v>2500</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3524,96 +3485,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB62A72-3879-4637-AA7E-A474583661D1}">
-  <dimension ref="A2:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>401001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>940001</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>401002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4">
-        <v>940002</v>
-      </c>
-      <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>401003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>940003</v>
-      </c>
-      <c r="D5">
-        <v>2500</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FF8978-7A4D-4CCE-87DE-7303823D3EEB}">
   <dimension ref="A2:G10"/>
   <sheetViews>
@@ -3634,16 +3505,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -3843,7 +3714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08ADCDD-295A-4117-AF8F-85EFC68CE8EA}">
   <dimension ref="A2:G4"/>
   <sheetViews>
@@ -3862,22 +3733,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3897,7 +3768,7 @@
         <v>4900</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3911,7 +3782,7 @@
         <v>920001</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3924,6 +3795,79 @@
       </c>
       <c r="G4">
         <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
+  <dimension ref="A2:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>710001</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3934,63 +3878,105 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
-  <dimension ref="A2:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9EE8F-AD06-4E93-BF42-A81103ED372D}">
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>710001</v>
-      </c>
-      <c r="B3">
+        <v>810001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>810002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>810003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>810004</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>810005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>810006</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>810007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2118E4-0F4D-4CFE-B281-17108F8D7279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F630949-2294-4A0C-BCB0-D408E6C05691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="7" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -1390,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1437,7 +1437,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44727.803985995371</v>
+        <v>44728.899187384261</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -1945,7 +1945,7 @@
         <v>6/15</v>
       </c>
       <c r="T14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -3808,7 +3808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
   <dimension ref="A2:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -3882,7 +3882,7 @@
   <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F630949-2294-4A0C-BCB0-D408E6C05691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C029A960-F484-4FD0-9937-C150AEDCA02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1437,7 +1437,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44728.899187384261</v>
+        <v>44729.928234490741</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -1621,11 +1621,11 @@
       </c>
       <c r="D5" s="13" t="str">
         <f t="shared" ref="D5:D40" si="2">_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F5:$AI5)),$E5)</f>
-        <v>6/17</v>
+        <v>6/18</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6/17</v>
+        <v>6/18</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1639,6 +1639,9 @@
         <v>1</v>
       </c>
       <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2001,15 +2004,15 @@
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6/16</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6/18</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6/18</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2026,9 +2029,15 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
+      <c r="U16" s="16">
+        <v>1</v>
+      </c>
+      <c r="V16" s="16">
+        <v>2</v>
+      </c>
+      <c r="W16" s="16">
+        <v>3</v>
+      </c>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C029A960-F484-4FD0-9937-C150AEDCA02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD3D702-0DC4-4621-9F02-9340330943FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,11 +459,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IncreasePrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CraftLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1391,7 +1399,7 @@
   <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1437,7 +1445,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44729.928234490741</v>
+        <v>44730.001048032405</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -1638,9 +1646,6 @@
       <c r="U5" s="3">
         <v>1</v>
       </c>
-      <c r="V5" s="3">
-        <v>2</v>
-      </c>
       <c r="W5" s="3">
         <v>3</v>
       </c>
@@ -1812,6 +1817,9 @@
         <v>2</v>
       </c>
       <c r="S10" s="3">
+        <v>2</v>
+      </c>
+      <c r="V10" s="3">
         <v>2</v>
       </c>
       <c r="X10" s="3">
@@ -3212,7 +3220,7 @@
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3393,16 +3401,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB62A72-3879-4637-AA7E-A474583661D1}">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3414,13 +3423,13 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -3428,16 +3437,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>401001</v>
+        <v>401000</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>940001</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
       </c>
       <c r="E3">
         <v>5000</v>
@@ -3448,41 +3457,101 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>401002</v>
+        <v>401001</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C4">
-        <v>940002</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>10000</v>
+        <v>940001</v>
       </c>
       <c r="E4">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>401003</v>
+        <v>402000</v>
       </c>
       <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>940002</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>402001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>940002</v>
+      </c>
+      <c r="E6">
+        <v>11000</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>403000</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C5">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>940003</v>
       </c>
-      <c r="D5">
+      <c r="E7">
         <v>2500</v>
       </c>
-      <c r="E5">
-        <v>5000</v>
-      </c>
-      <c r="F5">
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>403001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>940003</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
     </row>
@@ -3815,30 +3884,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
-  <dimension ref="A2:H3"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
@@ -3850,21 +3919,27 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>710001</v>
+        <v>710000</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -3877,6 +3952,540 @@
       </c>
       <c r="H3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>710001</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>IF(C3=20,20,SUM(C3,1))</f>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>710002</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C19" si="0">IF(C4=20,20,SUM(C4,1))</f>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>710003</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>710004</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>710005</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>350</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>710006</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>400</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>710007</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>450</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>710008</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>710009</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>550</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>710010</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>710011</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>105</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>0.2</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>710012</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>110</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>700</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>710013</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>115</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>750</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>0.2</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>710014</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>800</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>710015</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18">
+        <v>125</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>850</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>710016</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>130</v>
+      </c>
+      <c r="F19">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>900</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5DB4FB-6096-4072-9AD2-AA89BB12B8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC5FC9-88F2-4568-87ED-8F9A7DE91D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="113">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,6 +484,18 @@
   </si>
   <si>
     <t>인벤토리 스탯 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1410,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1457,7 +1469,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44730.955395254627</v>
+        <v>44731.62280902778</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -1782,11 +1794,11 @@
       </c>
       <c r="D9" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>6/19</v>
+        <v>6/17</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6/19</v>
+        <v>6/18</v>
       </c>
       <c r="R9" s="3">
         <v>1</v>
@@ -1804,10 +1816,7 @@
         <v>2</v>
       </c>
       <c r="W9" s="3">
-        <v>2</v>
-      </c>
-      <c r="X9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1820,11 +1829,11 @@
       </c>
       <c r="D10" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>6/19</v>
+        <v>6/17</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6/19</v>
+        <v>6/18</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1850,10 +1859,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="3">
-        <v>2</v>
-      </c>
-      <c r="X10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2142,19 +2148,19 @@
     </row>
     <row r="18" spans="2:35">
       <c r="B18" s="13" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6/19</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6/20</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6/20</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -2174,8 +2180,12 @@
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
+      <c r="X18" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>3</v>
+      </c>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
       <c r="AB18" s="16"/>
@@ -2189,19 +2199,19 @@
     </row>
     <row r="19" spans="2:35">
       <c r="B19" s="13" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6/19</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6/21</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6/21</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -2221,9 +2231,13 @@
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
+      <c r="X19" s="16">
+        <v>1</v>
+      </c>
       <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
+      <c r="Z19" s="16">
+        <v>3</v>
+      </c>
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="16"/>
@@ -75849,19 +75863,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -75892,8 +75907,11 @@
       <c r="J2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>710000</v>
       </c>
@@ -75924,8 +75942,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>710001</v>
       </c>
@@ -75957,8 +75978,11 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>710002</v>
       </c>
@@ -75990,8 +76014,11 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>710003</v>
       </c>
@@ -76023,8 +76050,11 @@
       <c r="J6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>710004</v>
       </c>
@@ -76056,8 +76086,11 @@
       <c r="J7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>710005</v>
       </c>
@@ -76089,8 +76122,11 @@
       <c r="J8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>710006</v>
       </c>
@@ -76122,8 +76158,11 @@
       <c r="J9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>710007</v>
       </c>
@@ -76155,8 +76194,11 @@
       <c r="J10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>710008</v>
       </c>
@@ -76188,8 +76230,11 @@
       <c r="J11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>710009</v>
       </c>
@@ -76221,8 +76266,11 @@
       <c r="J12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>710010</v>
       </c>
@@ -76254,8 +76302,11 @@
       <c r="J13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>710011</v>
       </c>
@@ -76287,8 +76338,11 @@
       <c r="J14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>710012</v>
       </c>
@@ -76320,8 +76374,11 @@
       <c r="J15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>710013</v>
       </c>
@@ -76353,8 +76410,11 @@
       <c r="J16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>710014</v>
       </c>
@@ -76386,8 +76446,11 @@
       <c r="J17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>710015</v>
       </c>
@@ -76419,8 +76482,11 @@
       <c r="J18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>3.5000000000000102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>710016</v>
       </c>
@@ -76451,6 +76517,9 @@
       </c>
       <c r="J19">
         <v>17</v>
+      </c>
+      <c r="K19">
+        <v>3.4000000000000101</v>
       </c>
     </row>
   </sheetData>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC5FC9-88F2-4568-87ED-8F9A7DE91D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3182AD65-BD03-4390-A706-FA06A12F1B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="13515" yWindow="315" windowWidth="28800" windowHeight="15585" firstSheet="2" activeTab="8" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="123">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,6 +496,46 @@
   </si>
   <si>
     <t>ChargeSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸우기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1469,7 +1509,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44731.62280902778</v>
+        <v>44732.814572800926</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -75865,8 +75905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -76531,10 +76571,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9EE8F-AD06-4E93-BF42-A81103ED372D}">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -76631,6 +76671,61 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>810008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>810009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>810010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>810011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>810012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3182AD65-BD03-4390-A706-FA06A12F1B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB43B3A-16E2-468F-8BD9-D7267B71FAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13515" yWindow="315" windowWidth="28800" windowHeight="15585" firstSheet="2" activeTab="8" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="125">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,10 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChargeSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,6 +532,18 @@
   </si>
   <si>
     <t>싸우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1366,7 +1374,7 @@
   <dimension ref="B3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1462,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1509,7 +1517,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44732.814572800926</v>
+        <v>44732.932288773147</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -2196,11 +2204,11 @@
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>6/20</v>
+        <v>6/19</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>6/20</v>
+        <v>6/19</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -2221,11 +2229,9 @@
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="16">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
       <c r="AB18" s="16"/>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="19" spans="2:35">
       <c r="B19" s="13" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2247,11 +2253,11 @@
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>6/21</v>
+        <v>6/19</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>6/21</v>
+        <v>6/19</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -2272,12 +2278,10 @@
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="16"/>
-      <c r="Z19" s="16">
-        <v>3</v>
-      </c>
+      <c r="Z19" s="16"/>
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="16"/>
@@ -2290,19 +2294,19 @@
     </row>
     <row r="20" spans="2:35">
       <c r="B20" s="13" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6/20</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6/20</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6/20</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -2323,7 +2327,9 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
+      <c r="Y20" s="16">
+        <v>4</v>
+      </c>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="21" spans="2:35">
       <c r="B21" s="13" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" ref="C21:C40" si="4">_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F21:$AI21)),$E21)</f>
-        <v/>
+        <v>6-20</v>
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6/20</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6/20</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2370,7 +2376,9 @@
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
+      <c r="Y21" s="16">
+        <v>1</v>
+      </c>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
@@ -75948,7 +75956,7 @@
         <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -76573,7 +76581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9EE8F-AD06-4E93-BF42-A81103ED372D}">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -76676,10 +76684,10 @@
         <v>810008</v>
       </c>
       <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
         <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -76687,10 +76695,10 @@
         <v>810009</v>
       </c>
       <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
         <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -76698,10 +76706,10 @@
         <v>810010</v>
       </c>
       <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
         <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -76709,10 +76717,10 @@
         <v>810011</v>
       </c>
       <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -76720,10 +76728,10 @@
         <v>810012</v>
       </c>
       <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
         <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB43B3A-16E2-468F-8BD9-D7267B71FAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295493C6-7651-4A6A-9441-C31CF8B74834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="18645" yWindow="750" windowWidth="15945" windowHeight="12780" firstSheet="3" activeTab="8" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="131">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,30 @@
   </si>
   <si>
     <t>최적화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExitGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Really?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
@@ -1517,7 +1541,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44732.932288773147</v>
+        <v>44733.749525694446</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -76579,10 +76603,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9EE8F-AD06-4E93-BF42-A81103ED372D}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -76734,6 +76758,39 @@
         <v>121</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>810013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>810014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>810015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295493C6-7651-4A6A-9441-C31CF8B74834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13366D-F7AE-408E-BD92-CD2CF6C03A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18645" yWindow="750" windowWidth="15945" windowHeight="12780" firstSheet="3" activeTab="8" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1494,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
@@ -1541,7 +1541,7 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44733.749525694446</v>
+        <v>44733.826207060185</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -2375,11 +2375,11 @@
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>6/20</v>
+        <v>6/21</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>6/20</v>
+        <v>6/21</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2403,7 +2403,9 @@
       <c r="Y21" s="16">
         <v>1</v>
       </c>
-      <c r="Z21" s="16"/>
+      <c r="Z21" s="16">
+        <v>2</v>
+      </c>
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="16"/>
@@ -2416,19 +2418,19 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="13" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>6/21</v>
       </c>
       <c r="D22" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6/21</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6/21</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -2450,7 +2452,9 @@
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
+      <c r="Z22" s="16">
+        <v>4</v>
+      </c>
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="16"/>
@@ -76605,7 +76609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9EE8F-AD06-4E93-BF42-A81103ED372D}">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13366D-F7AE-408E-BD92-CD2CF6C03A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B85261-62A2-4C8C-B753-9B73172C22AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="136">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 애니메이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,6 +564,30 @@
   </si>
   <si>
     <t>Really?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적 UI 캔버스 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 대신 Tween</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아틀라스 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트윈 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +737,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1395,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DB0EC1-4CF4-474D-B3C0-0713CDE6B964}">
-  <dimension ref="B3:G7"/>
+  <dimension ref="B3:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1409,9 +1432,10 @@
     <col min="5" max="5" width="18.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1430,8 +1454,11 @@
       <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="I3" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
@@ -1450,8 +1477,11 @@
       <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="I4" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
@@ -1467,8 +1497,11 @@
       <c r="G5" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="I5" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1478,10 +1511,16 @@
       <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="I6" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="D7" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1534,7 @@
   <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1541,40 +1580,40 @@
     <row r="2" spans="1:35">
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>44733.826207060185</v>
-      </c>
-      <c r="F2" s="17">
+        <v>44734.697679282406</v>
+      </c>
+      <c r="F2" s="18">
         <v>6</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -2269,7 +2308,7 @@
     </row>
     <row r="19" spans="2:35">
       <c r="B19" s="13" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2318,7 +2357,7 @@
     </row>
     <row r="20" spans="2:35">
       <c r="B20" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2367,7 +2406,7 @@
     </row>
     <row r="21" spans="2:35">
       <c r="B21" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" ref="C21:C40" si="4">_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F21:$AI21)),$E21)</f>
@@ -2375,11 +2414,11 @@
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>6/21</v>
+        <v>6/22</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>6/21</v>
+        <v>6/22</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2406,7 +2445,9 @@
       <c r="Z21" s="16">
         <v>2</v>
       </c>
-      <c r="AA21" s="16"/>
+      <c r="AA21" s="16">
+        <v>2</v>
+      </c>
       <c r="AB21" s="16"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
@@ -2418,7 +2459,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2467,19 +2508,19 @@
     </row>
     <row r="23" spans="2:35">
       <c r="B23" s="13" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>6-22</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6/22</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6/22</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -2502,7 +2543,9 @@
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
+      <c r="AA23" s="16">
+        <v>1</v>
+      </c>
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -76767,10 +76810,10 @@
         <v>810013</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -76778,10 +76821,10 @@
         <v>810014</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -76789,10 +76832,10 @@
         <v>810015</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B01C6F8-CF50-4217-B489-0B7EC5A2F844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04F252F-F6CA-4792-995A-5C855696E2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18645" yWindow="750" windowWidth="15945" windowHeight="12780" firstSheet="3" activeTab="9" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="17205" yWindow="1815" windowWidth="15945" windowHeight="12780" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3229" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="134">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,6 +578,10 @@
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Layout Group 배치 후 비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -678,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +741,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1272,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B661A13C-78C0-4024-AC23-0190BC46D0E0}">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1468,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DB0EC1-4CF4-474D-B3C0-0713CDE6B964}">
-  <dimension ref="B2:H5"/>
+  <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1482,7 +1489,7 @@
     <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1564,6 +1571,11 @@
       </c>
       <c r="G5" s="14" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1576,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1624,40 +1636,40 @@
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44734.734532870367</v>
-      </c>
-      <c r="F2" s="16">
+        <v>44735.662675694446</v>
+      </c>
+      <c r="F2" s="20">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
@@ -2444,7 +2456,7 @@
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>6/22</v>
+        <v>6/23</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -2474,7 +2486,9 @@
       <c r="AA20" s="15">
         <v>2</v>
       </c>
-      <c r="AB20" s="15"/>
+      <c r="AB20" s="15">
+        <v>4</v>
+      </c>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
@@ -2538,7 +2552,7 @@
       </c>
       <c r="C22" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>6-22</v>
+        <v>6/22</v>
       </c>
       <c r="D22" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2570,7 +2584,7 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB22" s="15"/>
       <c r="AC22" s="15"/>
@@ -2774,15 +2788,15 @@
         <v>84</v>
       </c>
       <c r="C27" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"-",MATCH(1,$F27:$AI27)),$E27)</f>
         <v/>
       </c>
       <c r="D27" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($Y$1,$F27:$AI27)),$E27)</f>
         <v/>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.IFNA(_xlfn.CONCAT($F$2,"/",MATCH($AC$1,$F27:$AI27)),"")</f>
         <v/>
       </c>
       <c r="F27" s="13"/>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF51C8FB-CDB2-485E-9DE7-2D18A23A01E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BAE27E-ABFA-4AC5-8BC4-BCB242FA7DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="3015" windowWidth="19650" windowHeight="12780" firstSheet="1" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="141">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,14 +578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Art/Sprite/Shop/Coin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,6 +590,22 @@
   </si>
   <si>
     <t>광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 추가 10k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Gold 10k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Gold 20k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 추가 20k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1387,7 @@
         <v>920002</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1568,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
@@ -1616,7 +1624,7 @@
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44736.704892939815</v>
+        <v>44737.097659953703</v>
       </c>
       <c r="F2" s="21">
         <v>6</v>
@@ -2577,7 +2585,7 @@
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="4"/>
@@ -75916,10 +75924,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08ADCDD-295A-4117-AF8F-85EFC68CE8EA}">
-  <dimension ref="A2:H3"/>
+  <dimension ref="A2:H4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -75962,7 +75970,7 @@
         <v>610001</v>
       </c>
       <c r="B3">
-        <v>810007</v>
+        <v>820003</v>
       </c>
       <c r="C3">
         <v>920002</v>
@@ -75981,6 +75989,32 @@
       </c>
       <c r="H3">
         <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>610002</v>
+      </c>
+      <c r="B4">
+        <v>820004</v>
+      </c>
+      <c r="C4">
+        <v>920002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>820002</v>
+      </c>
+      <c r="H4">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -76660,10 +76694,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9EE8F-AD06-4E93-BF42-A81103ED372D}">
-  <dimension ref="A2:C19"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -76751,123 +76785,134 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>810007</v>
+        <v>810008</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>810008</v>
+        <v>810009</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>810009</v>
+        <v>810010</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>810010</v>
+        <v>810011</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>810011</v>
+        <v>810012</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>810012</v>
+        <v>810013</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>810013</v>
+        <v>810014</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>810014</v>
+        <v>810015</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>810015</v>
+        <v>820001</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>820001</v>
+        <v>820002</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>820002</v>
+        <v>820003</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>820004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FE1B75-5C70-4833-AC85-ABF5FE7846D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BFAE7D-E5CD-46D0-95C5-2E4544AC9900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="142">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,6 +608,10 @@
     <t>골드 추가 20k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>문서작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1576,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1624,7 +1628,7 @@
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44737.112772569446</v>
+        <v>44737.812780208333</v>
       </c>
       <c r="F2" s="21">
         <v>6</v>
@@ -2636,19 +2640,19 @@
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>6-25</v>
       </c>
       <c r="D24" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6/25</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6/25</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -2674,7 +2678,9 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
+      <c r="AD24" s="13">
+        <v>1</v>
+      </c>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
@@ -75696,7 +75702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FF8978-7A4D-4CCE-87DE-7303823D3EEB}">
   <dimension ref="A2:G404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A379" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I400" sqref="I400"/>
     </sheetView>
   </sheetViews>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BFAE7D-E5CD-46D0-95C5-2E4544AC9900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146BE1B2-A745-4F22-8380-CBB1057BB937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:AI39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1628,7 +1628,7 @@
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44737.812780208333</v>
+        <v>44738.703592013888</v>
       </c>
       <c r="F2" s="21">
         <v>6</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>6/25</v>
+        <v>6/26</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -2681,7 +2681,9 @@
       <c r="AD24" s="13">
         <v>1</v>
       </c>
-      <c r="AE24" s="13"/>
+      <c r="AE24" s="13">
+        <v>4</v>
+      </c>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146BE1B2-A745-4F22-8380-CBB1057BB937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0EF68-B61F-4E5C-A12A-6CF69D1422D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="21780" yWindow="630" windowWidth="16920" windowHeight="15375" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="143">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,6 +612,10 @@
     <t>문서작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>어드레서블 에셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1313,7 +1317,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1585,7 @@
   <dimension ref="A1:AI39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1628,7 +1632,7 @@
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44738.703592013888</v>
+        <v>44739.92650775463</v>
       </c>
       <c r="F2" s="21">
         <v>6</v>
@@ -2691,19 +2695,19 @@
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>6-27</v>
       </c>
       <c r="D25" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6/27</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6/27</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -2731,7 +2735,9 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
+      <c r="AF25" s="13">
+        <v>1</v>
+      </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
@@ -75704,8 +75710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FF8978-7A4D-4CCE-87DE-7303823D3EEB}">
   <dimension ref="A2:G404"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I400" sqref="I400"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C403" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -85099,7 +85105,7 @@
   <dimension ref="A2:K203"/>
   <sheetViews>
     <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="M203" sqref="M203"/>
+      <selection activeCell="J219" sqref="J219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0EF68-B61F-4E5C-A12A-6CF69D1422D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3424DBD9-715C-4FE3-85EE-1ED817430BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21780" yWindow="630" windowWidth="16920" windowHeight="15375" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
@@ -613,7 +613,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어드레서블 에셋</t>
+    <t>어드레서블 에셋(게임데이터)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1584,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1632,7 +1632,7 @@
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44739.92650775463</v>
+        <v>44740.48890196759</v>
       </c>
       <c r="F2" s="21">
         <v>6</v>
@@ -2703,11 +2703,11 @@
       </c>
       <c r="D25" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>6/27</v>
+        <v>6/29</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>6/27</v>
+        <v>6/29</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -2738,8 +2738,12 @@
       <c r="AF25" s="13">
         <v>1</v>
       </c>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
+      <c r="AG25" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH25" s="13">
+        <v>3</v>
+      </c>
       <c r="AI25" s="13"/>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.3">

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3424DBD9-715C-4FE3-85EE-1ED817430BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A5F1E-44E4-47BA-8100-08EC49DB0642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="630" windowWidth="16920" windowHeight="15375" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="5205" yWindow="390" windowWidth="16920" windowHeight="15375" firstSheet="2" activeTab="7" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Enemy" sheetId="8" r:id="rId5"/>
     <sheet name="Item" sheetId="4" r:id="rId6"/>
     <sheet name="Shop" sheetId="3" r:id="rId7"/>
-    <sheet name="StartStatus" sheetId="13" r:id="rId8"/>
+    <sheet name="Status" sheetId="13" r:id="rId8"/>
     <sheet name="String" sheetId="6" r:id="rId9"/>
     <sheet name="Path" sheetId="7" r:id="rId10"/>
   </sheets>
@@ -1584,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
@@ -1632,7 +1632,7 @@
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44740.48890196759</v>
+        <v>44741.697821875001</v>
       </c>
       <c r="F2" s="21">
         <v>6</v>
@@ -85108,8 +85108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
   <dimension ref="A2:K203"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="J219" sqref="J219"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
+++ b/ClickerGame/Assets/Editor/Data/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Editor\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A5F1E-44E4-47BA-8100-08EC49DB0642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7A116-0B02-417B-AAD1-CD3FEF2CCABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="390" windowWidth="16920" windowHeight="15375" firstSheet="2" activeTab="7" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="16260" yWindow="315" windowWidth="16920" windowHeight="15375" firstSheet="2" activeTab="2" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Doc Rule" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,6 +775,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1584,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC6DBFE-FBAB-4E2A-A711-9A7F0E747B4A}">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF25" sqref="AF25"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1632,40 +1635,40 @@
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>44741.697821875001</v>
-      </c>
-      <c r="F2" s="21">
+        <v>44743.593320138891</v>
+      </c>
+      <c r="F2" s="22">
         <v>6</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
@@ -2595,7 +2598,7 @@
       <c r="B23" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="20" t="str">
+      <c r="C23" s="21" t="str">
         <f t="shared" si="4"/>
         <v>6-23</v>
       </c>
@@ -2646,7 +2649,7 @@
       <c r="B24" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="20" t="str">
+      <c r="C24" s="21" t="str">
         <f t="shared" si="4"/>
         <v>6-25</v>
       </c>
@@ -2697,7 +2700,7 @@
       <c r="B25" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="20" t="str">
+      <c r="C25" s="21" t="str">
         <f t="shared" si="4"/>
         <v>6-27</v>
       </c>
@@ -2750,7 +2753,7 @@
       <c r="B26" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="20" t="str">
+      <c r="C26" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2797,7 +2800,7 @@
       <c r="B27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="20" t="str">
+      <c r="C27" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2844,7 +2847,7 @@
       <c r="B28" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="20" t="str">
+      <c r="C28" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2891,7 +2894,7 @@
       <c r="B29" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="20" t="str">
+      <c r="C29" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2938,7 +2941,7 @@
       <c r="B30" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="20" t="str">
+      <c r="C30" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2985,7 +2988,7 @@
       <c r="B31" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="20" t="str">
+      <c r="C31" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3032,7 +3035,7 @@
       <c r="B32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="20" t="str">
+      <c r="C32" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3079,7 +3082,7 @@
       <c r="B33" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="20" t="str">
+      <c r="C33" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3126,7 +3129,7 @@
       <c r="B34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="20" t="str">
+      <c r="C34" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3173,7 +3176,7 @@
       <c r="B35" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="20" t="str">
+      <c r="C35" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3220,7 +3223,7 @@
       <c r="B36" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="20" t="str">
+      <c r="C36" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3267,7 +3270,7 @@
       <c r="B37" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="20" t="str">
+      <c r="C37" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3314,7 +3317,7 @@
       <c r="B38" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="20" t="str">
+      <c r="C38" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3361,7 +3364,7 @@
       <c r="B39" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="20" t="str">
+      <c r="C39" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -85108,7 +85111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2636E3-D550-4894-8574-537691C76883}">
   <dimension ref="A2:K203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+    <sheetView topLeftCell="A187" workbookViewId="0">
       <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
